--- a/artfynd/A 2523-2024 artfynd.xlsx
+++ b/artfynd/A 2523-2024 artfynd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY62"/>
+  <dimension ref="A1:AY63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7816,6 +7816,117 @@
       </c>
       <c r="AY62" t="inlineStr"/>
     </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>131239330</v>
+      </c>
+      <c r="B63" t="n">
+        <v>80349</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>6458</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Lunglav</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Lobaria pulmonaria</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>Ekdalsrörstigen, Upl</t>
+        </is>
+      </c>
+      <c r="Q63" t="n">
+        <v>628024</v>
+      </c>
+      <c r="R63" t="n">
+        <v>6645629</v>
+      </c>
+      <c r="S63" t="n">
+        <v>25</v>
+      </c>
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W63" t="inlineStr">
+        <is>
+          <t>Jumkil</t>
+        </is>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>1462</t>
+        </is>
+      </c>
+      <c r="Y63" t="inlineStr">
+        <is>
+          <t>2025-09-25</t>
+        </is>
+      </c>
+      <c r="AA63" t="inlineStr">
+        <is>
+          <t>2025-09-25</t>
+        </is>
+      </c>
+      <c r="AD63" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE63" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG63" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR63" t="inlineStr">
+        <is>
+          <t>2025:1463</t>
+        </is>
+      </c>
+      <c r="AT63" t="inlineStr"/>
+      <c r="AW63" t="inlineStr">
+        <is>
+          <t>Erik Sjödin</t>
+        </is>
+      </c>
+      <c r="AX63" t="inlineStr">
+        <is>
+          <t>Erik Sjödin</t>
+        </is>
+      </c>
+      <c r="AY63" t="inlineStr">
+        <is>
+          <t>Personlig inventering NES</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 2523-2024 artfynd.xlsx
+++ b/artfynd/A 2523-2024 artfynd.xlsx
@@ -7821,7 +7821,7 @@
         <v>131239330</v>
       </c>
       <c r="B63" t="n">
-        <v>80349</v>
+        <v>80350</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>

--- a/artfynd/A 2523-2024 artfynd.xlsx
+++ b/artfynd/A 2523-2024 artfynd.xlsx
@@ -7821,7 +7821,7 @@
         <v>131239330</v>
       </c>
       <c r="B63" t="n">
-        <v>80350</v>
+        <v>80351</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
